--- a/Data Files/Auto_CountryID_C1.xlsx
+++ b/Data Files/Auto_CountryID_C1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A4B20-4F5D-4C9E-9314-7F94826CDCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1393E35-AAA0-4DF7-B648-623DB8D9F0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10644" yWindow="1524" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>2023-09-01</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>2023-08-22</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Edot</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,68 +816,68 @@
         <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -885,37 +885,37 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
